--- a/notes_I/combi_plate_checklist.xlsx
+++ b/notes_I/combi_plate_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malte/Documents/global_scripts/pypetting_experiments/CombinationExperiment/notes_I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05163F5B-FB1E-2B48-A618-C7B7E2576542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6BCD21-93EE-6A40-A990-01EE7251B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55860" yWindow="2460" windowWidth="27640" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40420" yWindow="8000" windowWidth="27640" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date / Abbrv</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Make sure that the drug abbreviation is set correctly</t>
   </si>
   <si>
-    <t>Put labelled plates in shelf</t>
-  </si>
-  <si>
     <t>Place H₂O reservoir in robot</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Put disposable tips in robot</t>
   </si>
   <si>
-    <t xml:space="preserve">Checklist </t>
-  </si>
-  <si>
     <t>Soft Setup</t>
   </si>
   <si>
@@ -56,13 +50,22 @@
   </si>
   <si>
     <t>Print out all labels needed for the respective drug (labels.pdf)</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reservoirs (I)</t>
+  </si>
+  <si>
+    <t>Put labelled plates in StoreX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +89,13 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,14 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -152,6 +159,10 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,7 +469,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,132 +478,135 @@
     <col min="2" max="7" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
